--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avsukesh/Downloads/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95406CC-4067-064F-A1F8-5A39EB3A3C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A511F3-A41C-D44E-957C-D48FA59AC47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{ACCD5130-A2D8-2543-B1D0-A07EF563882B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -48,15 +48,26 @@
   <si>
     <t>Password123</t>
   </si>
+  <si>
+    <t>http://localhost:8000/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,13 +90,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB77B27-BFAB-5949-81E9-F2426BD6FD7F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +439,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{2946A48E-CCC6-384D-B26D-9ED2D805DC1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>